--- a/full/sliding_window_results_window_10.xlsx
+++ b/full/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>34.4</v>
       </c>
       <c r="C2" t="n">
-        <v>35.08488081687513</v>
+        <v>35.23893861527072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6848808168751361</v>
+        <v>0.8389386152707203</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4690617333235538</v>
+        <v>0.7038180001923537</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>36.3</v>
       </c>
       <c r="C3" t="n">
-        <v>37.51656191095597</v>
+        <v>37.62761364450191</v>
       </c>
       <c r="D3" t="n">
-        <v>1.216561910955974</v>
+        <v>1.327613644501916</v>
       </c>
       <c r="E3" t="n">
-        <v>1.480022883188852</v>
+        <v>1.76255798906766</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>38.5</v>
       </c>
       <c r="C4" t="n">
-        <v>38.85459209203005</v>
+        <v>38.65580003195541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3545920920300532</v>
+        <v>0.1558000319554083</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1257355517302497</v>
+        <v>0.02427364995730624</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>40.1</v>
       </c>
       <c r="C5" t="n">
-        <v>40.5263926010247</v>
+        <v>40.59185499263088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4263926010246948</v>
+        <v>0.4918549926308771</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1818106502086045</v>
+        <v>0.2419213337759201</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>41.5</v>
       </c>
       <c r="C6" t="n">
-        <v>42.52074490107742</v>
+        <v>42.63360424518282</v>
       </c>
       <c r="D6" t="n">
-        <v>1.020744901077421</v>
+        <v>1.133604245182823</v>
       </c>
       <c r="E6" t="n">
-        <v>1.041920153075554</v>
+        <v>1.285058584696519</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>43.7</v>
       </c>
       <c r="C7" t="n">
-        <v>45.80704118683717</v>
+        <v>45.7369867689216</v>
       </c>
       <c r="D7" t="n">
-        <v>2.107041186837165</v>
+        <v>2.036986768921594</v>
       </c>
       <c r="E7" t="n">
-        <v>4.439622563028169</v>
+        <v>4.149315096761634</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>48.1</v>
       </c>
       <c r="C8" t="n">
-        <v>48.68103720779845</v>
+        <v>49.11766261407413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5810372077984525</v>
+        <v>1.017662614074133</v>
       </c>
       <c r="E8" t="n">
-        <v>0.337604236846222</v>
+        <v>1.035637196084199</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>54.62376657825838</v>
+        <v>54.82337255533495</v>
       </c>
       <c r="D9" t="n">
-        <v>1.623766578258383</v>
+        <v>1.823372555334949</v>
       </c>
       <c r="E9" t="n">
-        <v>2.636617900668938</v>
+        <v>3.3246874755487</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>56.1</v>
       </c>
       <c r="C10" t="n">
-        <v>57.93657960130908</v>
+        <v>58.09399730330553</v>
       </c>
       <c r="D10" t="n">
-        <v>1.836579601309076</v>
+        <v>1.993997303305527</v>
       </c>
       <c r="E10" t="n">
-        <v>3.373024631944604</v>
+        <v>3.976025245589712</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>61.7555277803572</v>
+        <v>62.05156568979027</v>
       </c>
       <c r="D11" t="n">
-        <v>1.755527780357198</v>
+        <v>2.051565689790266</v>
       </c>
       <c r="E11" t="n">
-        <v>3.081877787605871</v>
+        <v>4.208921779524609</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>63.9</v>
       </c>
       <c r="C12" t="n">
-        <v>65.55855891171514</v>
+        <v>65.78327169915383</v>
       </c>
       <c r="D12" t="n">
-        <v>1.65855891171514</v>
+        <v>1.883271699153831</v>
       </c>
       <c r="E12" t="n">
-        <v>2.750817663629709</v>
+        <v>3.546712292833756</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>73.39588354626491</v>
+        <v>73.76305219589875</v>
       </c>
       <c r="D13" t="n">
-        <v>2.795883546264918</v>
+        <v>3.163052195898757</v>
       </c>
       <c r="E13" t="n">
-        <v>7.816964804274892</v>
+        <v>10.00489919397995</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>84.36735142620007</v>
+        <v>84.86940853445628</v>
       </c>
       <c r="D14" t="n">
-        <v>3.467351426200068</v>
+        <v>3.969408534456278</v>
       </c>
       <c r="E14" t="n">
-        <v>12.02252591277164</v>
+        <v>15.75620411341434</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>93.00590045191697</v>
+        <v>93.47730026548967</v>
       </c>
       <c r="D15" t="n">
-        <v>3.905900451916978</v>
+        <v>4.37730026548968</v>
       </c>
       <c r="E15" t="n">
-        <v>15.25605834028525</v>
+        <v>19.16075761425602</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>95</v>
       </c>
       <c r="C16" t="n">
-        <v>98.85891945662371</v>
+        <v>99.32820861178925</v>
       </c>
       <c r="D16" t="n">
-        <v>3.85891945662371</v>
+        <v>4.32820861178925</v>
       </c>
       <c r="E16" t="n">
-        <v>14.89125937270903</v>
+        <v>18.73338978716663</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>98.8</v>
       </c>
       <c r="C17" t="n">
-        <v>102.7043841677362</v>
+        <v>103.2978274218767</v>
       </c>
       <c r="D17" t="n">
-        <v>3.904384167736197</v>
+        <v>4.49782742187675</v>
       </c>
       <c r="E17" t="n">
-        <v>15.24421572926907</v>
+        <v>20.23045151698645</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>103.3</v>
       </c>
       <c r="C18" t="n">
-        <v>106.1534976778662</v>
+        <v>106.5462580940614</v>
       </c>
       <c r="D18" t="n">
-        <v>2.853497677866216</v>
+        <v>3.246258094061361</v>
       </c>
       <c r="E18" t="n">
-        <v>8.142448997587884</v>
+        <v>10.5381916132589</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>107</v>
       </c>
       <c r="C19" t="n">
-        <v>109.5014048958048</v>
+        <v>109.8504660320251</v>
       </c>
       <c r="D19" t="n">
-        <v>2.501404895804825</v>
+        <v>2.850466032025139</v>
       </c>
       <c r="E19" t="n">
-        <v>6.257026452756347</v>
+        <v>8.12515659972914</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>108.7</v>
       </c>
       <c r="C20" t="n">
-        <v>111.6853718818227</v>
+        <v>112.1326848132982</v>
       </c>
       <c r="D20" t="n">
-        <v>2.985371881822672</v>
+        <v>3.432684813298167</v>
       </c>
       <c r="E20" t="n">
-        <v>8.912445272777445</v>
+        <v>11.78332502744787</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>112.7</v>
       </c>
       <c r="C21" t="n">
-        <v>115.2566825399489</v>
+        <v>115.4659863738143</v>
       </c>
       <c r="D21" t="n">
-        <v>2.556682539948937</v>
+        <v>2.765986373814272</v>
       </c>
       <c r="E21" t="n">
-        <v>6.53662561007975</v>
+        <v>7.650680620126225</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>42.09507963242321</v>
+        <v>47.3858605028317</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>114.9976862477616</v>
+        <v>146.2419847303979</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>5.749884312388081</v>
+        <v>7.312099236519894</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_10.xlsx
+++ b/full/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>30.15045815484523</v>
+        <v>30.06443033626282</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2304581548452305</v>
+        <v>0.1444303362628148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05311096113466823</v>
+        <v>0.02086012203298974</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>29.57760358353954</v>
+        <v>29.82430367137924</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4023964164604585</v>
+        <v>-0.1556963286207598</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1619228759802188</v>
+        <v>0.02424134674598362</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.04</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8876133789907</v>
+        <v>29.74799945601933</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.152386621009299</v>
+        <v>-0.2920005439806665</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02322168226263173</v>
+        <v>0.08526431768500518</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.21</v>
       </c>
       <c r="C5" t="n">
-        <v>29.55110988573279</v>
+        <v>29.11472861437268</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6588901142672086</v>
+        <v>-1.095271385627317</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4341361826790551</v>
+        <v>1.199619408173983</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>29.94462543628945</v>
+        <v>29.52318149212922</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2753745637105496</v>
+        <v>-0.6968185078707805</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07583115033877554</v>
+        <v>0.485556032911261</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>29.8816698068154</v>
+        <v>29.77955219312792</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4983301931846036</v>
+        <v>-0.6004478068720829</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2483329814394043</v>
+        <v>0.3605375687774942</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>30.53153397042876</v>
+        <v>30.23222788438841</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09153397042875966</v>
+        <v>-0.2077721156115935</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008378467742453048</v>
+        <v>0.04316925202571736</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>30.37329085993156</v>
+        <v>30.49980616390415</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1067091400684426</v>
+        <v>0.01980616390414625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01138684057414649</v>
+        <v>0.0003922841285979057</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>30.56229443542715</v>
+        <v>30.54786367970804</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1277055645728531</v>
+        <v>-0.1421363202919572</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01630871122287115</v>
+        <v>0.02020273354613785</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>30.40295983610252</v>
+        <v>30.96101268311433</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.347040163897482</v>
+        <v>0.2110126831143262</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1204368753579912</v>
+        <v>0.04452635243510705</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>30.6690536612905</v>
+        <v>31.31503111168806</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2709463387094964</v>
+        <v>0.375031111688056</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07341191846008112</v>
+        <v>0.1406483347339792</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.95</v>
       </c>
       <c r="C13" t="n">
-        <v>30.87308474573936</v>
+        <v>31.49457366232175</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07691525426064416</v>
+        <v>0.5445736623217527</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00591595633797954</v>
+        <v>0.2965604736945264</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>31.02</v>
       </c>
       <c r="C14" t="n">
-        <v>31.42862978224556</v>
+        <v>31.53957830086107</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4086297822455585</v>
+        <v>0.5195783008610704</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1669782989380525</v>
+        <v>0.269961610725677</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.12</v>
       </c>
       <c r="C15" t="n">
-        <v>31.73932379059798</v>
+        <v>31.54807976351414</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6193237905979778</v>
+        <v>0.4280797635141411</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3835619576006479</v>
+        <v>0.183252283930323</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.28</v>
       </c>
       <c r="C16" t="n">
-        <v>31.8001027920917</v>
+        <v>31.82866309169452</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5201027920916985</v>
+        <v>0.5486630916945145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2705069143415806</v>
+        <v>0.3010311881877833</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.38</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4866341557887</v>
+        <v>31.6646103044787</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1066341557887007</v>
+        <v>0.2846103044787007</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0113708431807689</v>
+        <v>0.08100302541545873</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.58</v>
       </c>
       <c r="C18" t="n">
-        <v>31.84267344671913</v>
+        <v>31.59493988768019</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2626734467191341</v>
+        <v>0.01493988768018895</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06899733961130976</v>
+        <v>0.0002232002438966614</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.65</v>
       </c>
       <c r="C19" t="n">
-        <v>31.82384162411077</v>
+        <v>31.68670405269421</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1738416241107714</v>
+        <v>0.03670405269421551</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03022091027347074</v>
+        <v>0.001347187484179749</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.88</v>
       </c>
       <c r="C20" t="n">
-        <v>32.52588862827167</v>
+        <v>32.21530595261872</v>
       </c>
       <c r="D20" t="n">
-        <v>0.645888628271674</v>
+        <v>0.3353059526187216</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4171721201306647</v>
+        <v>0.1124300818615484</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>32.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.42675507501861</v>
+        <v>32.17015382033146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1467550750186106</v>
+        <v>-0.109846179668537</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02153705204371803</v>
+        <v>0.01206618318777252</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.45</v>
       </c>
       <c r="C22" t="n">
-        <v>32.48906773209526</v>
+        <v>32.2114913262569</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03906773209525483</v>
+        <v>-0.2385086737431052</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001526287691066604</v>
+        <v>0.05688638745069502</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.85</v>
       </c>
       <c r="C23" t="n">
-        <v>32.68757766467187</v>
+        <v>33.10141974170725</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1624223353281309</v>
+        <v>0.2514197417072523</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0263810150134438</v>
+        <v>0.06321188652014148</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.9</v>
       </c>
       <c r="C24" t="n">
-        <v>32.81789647584993</v>
+        <v>33.18490414560242</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08210352415007094</v>
+        <v>0.2849041456024253</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006740988677861282</v>
+        <v>0.08117037218144794</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>33.1</v>
       </c>
       <c r="C25" t="n">
-        <v>33.14090606419386</v>
+        <v>33.06751199284937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04090606419386233</v>
+        <v>-0.03248800715063282</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001673306087832386</v>
+        <v>0.00105547060861957</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.4</v>
       </c>
       <c r="C26" t="n">
-        <v>33.68519413220316</v>
+        <v>33.40909883880168</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2851941322031664</v>
+        <v>0.009098838801683939</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08133569304311714</v>
+        <v>8.278886753902923e-05</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>33.87216588000717</v>
+        <v>33.62261684802064</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1721658800071708</v>
+        <v>-0.07738315197936174</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02964109023864354</v>
+        <v>0.005988152210260997</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>34.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.97085561693148</v>
+        <v>34.10825457068023</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1291443830685211</v>
+        <v>0.008254570680229278</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01667827167814891</v>
+        <v>6.813793711490086e-05</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.4</v>
       </c>
       <c r="C29" t="n">
-        <v>34.27075136985163</v>
+        <v>34.5251974927726</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1292486301483677</v>
+        <v>0.1251974927725996</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01670520839522955</v>
+        <v>0.01567441219654513</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.9</v>
       </c>
       <c r="C30" t="n">
-        <v>34.61143521302103</v>
+        <v>34.78657990434206</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2885647869789665</v>
+        <v>-0.1134200956579434</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0832696362842163</v>
+        <v>0.01286411809905704</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>35.3</v>
       </c>
       <c r="C31" t="n">
-        <v>35.35959892399529</v>
+        <v>35.30601485221275</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05959892399529565</v>
+        <v>0.006014852212750554</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003552031741397028</v>
+        <v>3.617844714123024e-05</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.7</v>
       </c>
       <c r="C32" t="n">
-        <v>35.79080162479443</v>
+        <v>35.48539191447748</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09080162479442322</v>
+        <v>-0.2146080855225208</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008244935065307213</v>
+        <v>0.04605663037164158</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>36.3</v>
       </c>
       <c r="C33" t="n">
-        <v>36.03264968725425</v>
+        <v>35.67686639017901</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2673503127457479</v>
+        <v>-0.6231336098209894</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07147618972524923</v>
+        <v>0.3882954956885371</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.8</v>
       </c>
       <c r="C34" t="n">
-        <v>36.98082208978937</v>
+        <v>36.22003163832851</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1808220897893733</v>
+        <v>-0.5799683616714901</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03269662815579618</v>
+        <v>0.3363633005399124</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>37.3</v>
       </c>
       <c r="C35" t="n">
-        <v>37.03808174720831</v>
+        <v>36.82715857126485</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2619182527916877</v>
+        <v>-0.4728414287351512</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0686011711454504</v>
+        <v>0.2235790167282991</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.9</v>
       </c>
       <c r="C36" t="n">
-        <v>38.01083806580366</v>
+        <v>37.80912703771192</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1108380658036623</v>
+        <v>-0.09087296228808128</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01228507683109697</v>
+        <v>0.008257895275011043</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>38.5</v>
       </c>
       <c r="C37" t="n">
-        <v>38.67005654805641</v>
+        <v>38.5326960693319</v>
       </c>
       <c r="D37" t="n">
-        <v>0.170056548056408</v>
+        <v>0.03269606933189806</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02891922953686141</v>
+        <v>0.001069032949756285</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.9</v>
       </c>
       <c r="C38" t="n">
-        <v>39.12237970160986</v>
+        <v>39.31931509925381</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2223797016098601</v>
+        <v>0.4193150992538079</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04945273168809041</v>
+        <v>0.1758251524622308</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>39.4</v>
       </c>
       <c r="C39" t="n">
-        <v>39.56793608028836</v>
+        <v>39.84451746815164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1679360802883636</v>
+        <v>0.4445174681516448</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02820252706261971</v>
+        <v>0.1975957794919486</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.9</v>
       </c>
       <c r="C40" t="n">
-        <v>39.85061662806815</v>
+        <v>40.13033370104905</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.04938337193184594</v>
+        <v>0.2303337010490552</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00243871742335903</v>
+        <v>0.05305361383895551</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>40.1</v>
       </c>
       <c r="C41" t="n">
-        <v>39.99719629544344</v>
+        <v>39.87095759650498</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1028037045565569</v>
+        <v>-0.229042403495022</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01056860167055183</v>
+        <v>0.05246042259877648</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.6</v>
       </c>
       <c r="C42" t="n">
-        <v>40.14740321345568</v>
+        <v>40.60442235086847</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4525967865443263</v>
+        <v>0.004422350868466651</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2048438511902505</v>
+        <v>1.955718720382775e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.9</v>
       </c>
       <c r="C43" t="n">
-        <v>40.43717594502318</v>
+        <v>40.77083204976728</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4628240549768208</v>
+        <v>-0.1291679502327199</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2142061058651872</v>
+        <v>0.0166843593673224</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>41.2</v>
       </c>
       <c r="C44" t="n">
-        <v>41.25164687007472</v>
+        <v>41.48470126378374</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05164687007471258</v>
+        <v>0.2847012637837381</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002667399188514242</v>
+        <v>0.08105480960005759</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.5</v>
       </c>
       <c r="C45" t="n">
-        <v>41.50640795799717</v>
+        <v>41.10928511946057</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006407957997168978</v>
+        <v>-0.3907148805394272</v>
       </c>
       <c r="E45" t="n">
-        <v>4.106192569348186e-05</v>
+        <v>0.1526581178749388</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.8</v>
       </c>
       <c r="C46" t="n">
-        <v>42.16556872913132</v>
+        <v>41.28583983217257</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3655687291313257</v>
+        <v>-0.514160167827427</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1336404957186925</v>
+        <v>0.2643606781803279</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>42.2</v>
       </c>
       <c r="C47" t="n">
-        <v>42.57779146628009</v>
+        <v>42.20022596496717</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3777914662800868</v>
+        <v>0.0002259649671714214</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1427263919940579</v>
+        <v>5.106016638878157e-08</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.7</v>
       </c>
       <c r="C48" t="n">
-        <v>43.73722680448905</v>
+        <v>43.26718534252096</v>
       </c>
       <c r="D48" t="n">
-        <v>1.037226804489052</v>
+        <v>0.5671853425209576</v>
       </c>
       <c r="E48" t="n">
-        <v>1.07583944395057</v>
+        <v>0.321699212770616</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>43.7</v>
       </c>
       <c r="C49" t="n">
-        <v>44.37882933852995</v>
+        <v>43.89964921480373</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6788293385299511</v>
+        <v>0.1996492148037277</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4608092708490109</v>
+        <v>0.03985980897174499</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>44.2</v>
       </c>
       <c r="C50" t="n">
-        <v>43.9873501350492</v>
+        <v>43.64463790310828</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.212649864950798</v>
+        <v>-0.5553620968917272</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04521996506359261</v>
+        <v>0.3084270586639762</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>45.6</v>
       </c>
       <c r="C51" t="n">
-        <v>44.27202124572106</v>
+        <v>45.55437905176503</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.327978754278938</v>
+        <v>-0.04562094823497631</v>
       </c>
       <c r="E51" t="n">
-        <v>1.76352757181624</v>
+        <v>0.002081270917858388</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.4173962968654372</v>
+        <v>-1.276610584994213</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>7.226650934367638</v>
+        <v>6.589332156985265</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1445330186873527</v>
+        <v>0.1317866431397053</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_10.xlsx
+++ b/full/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>30.06443033626282</v>
+        <v>30.06526204312328</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1444303362628148</v>
+        <v>0.1452620431232816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02086012203298974</v>
+        <v>0.02110106117235013</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>29.82430367137924</v>
+        <v>29.77361314102566</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1556963286207598</v>
+        <v>-0.2063868589743372</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02424134674598362</v>
+        <v>0.04259553555729294</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.04</v>
       </c>
       <c r="C4" t="n">
-        <v>29.74799945601933</v>
+        <v>29.68242929793294</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2920005439806665</v>
+        <v>-0.3575707020670613</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08526431768500518</v>
+        <v>0.1278568069767311</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.21</v>
       </c>
       <c r="C5" t="n">
-        <v>29.11472861437268</v>
+        <v>29.09731497494095</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.095271385627317</v>
+        <v>-1.112685025059047</v>
       </c>
       <c r="E5" t="n">
-        <v>1.199619408173983</v>
+        <v>1.238067964990653</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>29.52318149212922</v>
+        <v>29.42940887954319</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6968185078707805</v>
+        <v>-0.7905911204568135</v>
       </c>
       <c r="E6" t="n">
-        <v>0.485556032911261</v>
+        <v>0.6250343197451598</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>29.77955219312792</v>
+        <v>29.7881788855304</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6004478068720829</v>
+        <v>-0.5918211144696031</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3605375687774942</v>
+        <v>0.350252231532043</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>30.23222788438841</v>
+        <v>30.11203082715606</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2077721156115935</v>
+        <v>-0.3279691728439396</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04316925202571736</v>
+        <v>0.1075637783359379</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>30.49980616390415</v>
+        <v>30.40260766918463</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01980616390414625</v>
+        <v>-0.07739233081537478</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003922841285979057</v>
+        <v>0.005989572869036408</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54786367970804</v>
+        <v>30.59006937031653</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1421363202919572</v>
+        <v>-0.09993062968347033</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02020273354613785</v>
+        <v>0.00998613074893488</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>30.96101268311433</v>
+        <v>30.91594707776787</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2110126831143262</v>
+        <v>0.1659470777678713</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04452635243510705</v>
+        <v>0.02753843261969593</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>31.31503111168806</v>
+        <v>31.33968886252005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.375031111688056</v>
+        <v>0.3996888625200512</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1406483347339792</v>
+        <v>0.1597511868225724</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.95</v>
       </c>
       <c r="C13" t="n">
-        <v>31.49457366232175</v>
+        <v>30.76536837120104</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5445736623217527</v>
+        <v>-0.1846316287989609</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2965604736945264</v>
+        <v>0.03408883835295728</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>31.02</v>
       </c>
       <c r="C14" t="n">
-        <v>31.53957830086107</v>
+        <v>31.54981543083226</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5195783008610704</v>
+        <v>0.5298154308322651</v>
       </c>
       <c r="E14" t="n">
-        <v>0.269961610725677</v>
+        <v>0.2807043907479787</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.12</v>
       </c>
       <c r="C15" t="n">
-        <v>31.54807976351414</v>
+        <v>31.53716129056517</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4280797635141411</v>
+        <v>0.417161290565172</v>
       </c>
       <c r="E15" t="n">
-        <v>0.183252283930323</v>
+        <v>0.1740235423459999</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.28</v>
       </c>
       <c r="C16" t="n">
-        <v>31.82866309169452</v>
+        <v>31.80580307736444</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5486630916945145</v>
+        <v>0.5258030773644435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3010311881877833</v>
+        <v>0.276468876165919</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.38</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6646103044787</v>
+        <v>31.69465262015846</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2846103044787007</v>
+        <v>0.3146526201584621</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08100302541545873</v>
+        <v>0.09900627137258541</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.58</v>
       </c>
       <c r="C18" t="n">
-        <v>31.59493988768019</v>
+        <v>31.65740956194169</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01493988768018895</v>
+        <v>0.07740956194169613</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0002232002438966614</v>
+        <v>0.005992240280005289</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.65</v>
       </c>
       <c r="C19" t="n">
-        <v>31.68670405269421</v>
+        <v>31.6920357347077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03670405269421551</v>
+        <v>0.04203573470769939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001347187484179749</v>
+        <v>0.001767002992416083</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.88</v>
       </c>
       <c r="C20" t="n">
-        <v>32.21530595261872</v>
+        <v>32.28892950617983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3353059526187216</v>
+        <v>0.4089295061798346</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1124300818615484</v>
+        <v>0.1672233410244834</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>32.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.17015382033146</v>
+        <v>32.0583200922224</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.109846179668537</v>
+        <v>-0.2216799077775988</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01206618318777252</v>
+        <v>0.04914198151228472</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.45</v>
       </c>
       <c r="C22" t="n">
-        <v>32.2114913262569</v>
+        <v>32.38591205351283</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2385086737431052</v>
+        <v>-0.06408794648717731</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05688638745069502</v>
+        <v>0.004107264884943302</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.85</v>
       </c>
       <c r="C23" t="n">
-        <v>33.10141974170725</v>
+        <v>33.33719290873862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2514197417072523</v>
+        <v>0.4871929087386206</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06321188652014148</v>
+        <v>0.2373569303251979</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.9</v>
       </c>
       <c r="C24" t="n">
-        <v>33.18490414560242</v>
+        <v>32.94075428314598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2849041456024253</v>
+        <v>0.04075428314597929</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08117037218144794</v>
+        <v>0.001660911594742651</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>33.1</v>
       </c>
       <c r="C25" t="n">
-        <v>33.06751199284937</v>
+        <v>33.47442947657888</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.03248800715063282</v>
+        <v>0.3744294765788752</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00105547060861957</v>
+        <v>0.1401974329311304</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.4</v>
       </c>
       <c r="C26" t="n">
-        <v>33.40909883880168</v>
+        <v>33.55151825792096</v>
       </c>
       <c r="D26" t="n">
-        <v>0.009098838801683939</v>
+        <v>0.1515182579209622</v>
       </c>
       <c r="E26" t="n">
-        <v>8.278886753902923e-05</v>
+        <v>0.02295778248340322</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>33.62261684802064</v>
+        <v>34.01961402267981</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.07738315197936174</v>
+        <v>0.3196140226798079</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005988152210260997</v>
+        <v>0.1021531234935687</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>34.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34.10825457068023</v>
+        <v>34.51972378838505</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008254570680229278</v>
+        <v>0.4197237883850491</v>
       </c>
       <c r="E28" t="n">
-        <v>6.813793711490086e-05</v>
+        <v>0.1761680585362975</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.4</v>
       </c>
       <c r="C29" t="n">
-        <v>34.5251974927726</v>
+        <v>34.91451818290858</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1251974927725996</v>
+        <v>0.5145181829085814</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01567441219654513</v>
+        <v>0.2647289605435484</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.9</v>
       </c>
       <c r="C30" t="n">
-        <v>34.78657990434206</v>
+        <v>35.25466328792492</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1134200956579434</v>
+        <v>0.3546632879249216</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01286411809905704</v>
+        <v>0.1257860478017159</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>35.3</v>
       </c>
       <c r="C31" t="n">
-        <v>35.30601485221275</v>
+        <v>35.22518280302381</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006014852212750554</v>
+        <v>-0.07481719697619127</v>
       </c>
       <c r="E31" t="n">
-        <v>3.617844714123024e-05</v>
+        <v>0.005597612963374204</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.7</v>
       </c>
       <c r="C32" t="n">
-        <v>35.48539191447748</v>
+        <v>35.53227223680354</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2146080855225208</v>
+        <v>-0.1677277631964671</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04605663037164158</v>
+        <v>0.02813260254689014</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>36.3</v>
       </c>
       <c r="C33" t="n">
-        <v>35.67686639017901</v>
+        <v>36.10432122248096</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6231336098209894</v>
+        <v>-0.195678777519035</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3882954956885371</v>
+        <v>0.03829018397134398</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.8</v>
       </c>
       <c r="C34" t="n">
-        <v>36.22003163832851</v>
+        <v>36.00685295526957</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5799683616714901</v>
+        <v>-0.793147044730425</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3363633005399124</v>
+        <v>0.6290822345646068</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>37.3</v>
       </c>
       <c r="C35" t="n">
-        <v>36.82715857126485</v>
+        <v>36.8138861908204</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4728414287351512</v>
+        <v>-0.4861138091795993</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2235790167282991</v>
+        <v>0.2363066354750999</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.9</v>
       </c>
       <c r="C36" t="n">
-        <v>37.80912703771192</v>
+        <v>38.10596804125066</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.09087296228808128</v>
+        <v>0.2059680412506637</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008257895275011043</v>
+        <v>0.0424228340166351</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>38.5</v>
       </c>
       <c r="C37" t="n">
-        <v>38.5326960693319</v>
+        <v>38.91691024451923</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03269606933189806</v>
+        <v>0.4169102445192294</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001069032949756285</v>
+        <v>0.1738141519850837</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.9</v>
       </c>
       <c r="C38" t="n">
-        <v>39.31931509925381</v>
+        <v>39.07704346685948</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4193150992538079</v>
+        <v>0.1770434668594802</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1758251524622308</v>
+        <v>0.03134438915762388</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>39.4</v>
       </c>
       <c r="C39" t="n">
-        <v>39.84451746815164</v>
+        <v>39.85983453175238</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4445174681516448</v>
+        <v>0.4598345317523851</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1975957794919486</v>
+        <v>0.2114477965919352</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.9</v>
       </c>
       <c r="C40" t="n">
-        <v>40.13033370104905</v>
+        <v>40.31202145670373</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2303337010490552</v>
+        <v>0.4120214567037337</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05305361383895551</v>
+        <v>0.1697616807842667</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>40.1</v>
       </c>
       <c r="C41" t="n">
-        <v>39.87095759650498</v>
+        <v>40.03263522252641</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.229042403495022</v>
+        <v>-0.0673647774735926</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05246042259877648</v>
+        <v>0.004538013244066648</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.6</v>
       </c>
       <c r="C42" t="n">
-        <v>40.60442235086847</v>
+        <v>40.00460810423311</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004422350868466651</v>
+        <v>-0.5953918957668876</v>
       </c>
       <c r="E42" t="n">
-        <v>1.955718720382775e-05</v>
+        <v>0.3544915095448883</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.9</v>
       </c>
       <c r="C43" t="n">
-        <v>40.77083204976728</v>
+        <v>41.0610682726564</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1291679502327199</v>
+        <v>0.1610682726564008</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0166843593673224</v>
+        <v>0.02594298845651666</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>41.2</v>
       </c>
       <c r="C44" t="n">
-        <v>41.48470126378374</v>
+        <v>41.86145989877423</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2847012637837381</v>
+        <v>0.6614598987742255</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08105480960005759</v>
+        <v>0.4375291976864086</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.5</v>
       </c>
       <c r="C45" t="n">
-        <v>41.10928511946057</v>
+        <v>41.21810426091336</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.3907148805394272</v>
+        <v>-0.281895739086643</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1526581178749388</v>
+        <v>0.07946520771520471</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.8</v>
       </c>
       <c r="C46" t="n">
-        <v>41.28583983217257</v>
+        <v>41.3537642372255</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.514160167827427</v>
+        <v>-0.4462357627744993</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2643606781803279</v>
+        <v>0.1991263559789392</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>42.2</v>
       </c>
       <c r="C47" t="n">
-        <v>42.20022596496717</v>
+        <v>42.66360350455556</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0002259649671714214</v>
+        <v>0.4636035045555573</v>
       </c>
       <c r="E47" t="n">
-        <v>5.106016638878157e-08</v>
+        <v>0.2149282094361946</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.7</v>
       </c>
       <c r="C48" t="n">
-        <v>43.26718534252096</v>
+        <v>43.24830246905725</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5671853425209576</v>
+        <v>0.5483024690572478</v>
       </c>
       <c r="E48" t="n">
-        <v>0.321699212770616</v>
+        <v>0.3006355975742742</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>43.7</v>
       </c>
       <c r="C49" t="n">
-        <v>43.89964921480373</v>
+        <v>42.84890041453244</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1996492148037277</v>
+        <v>-0.8510995854675656</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03985980897174499</v>
+        <v>0.7243705043830619</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>44.2</v>
       </c>
       <c r="C50" t="n">
-        <v>43.64463790310828</v>
+        <v>44.17761236751615</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5553620968917272</v>
+        <v>-0.02238763248384856</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3084270586639762</v>
+        <v>0.0005012060882318714</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>45.6</v>
       </c>
       <c r="C51" t="n">
-        <v>45.55437905176503</v>
+        <v>46.07601862338466</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.04562094823497631</v>
+        <v>0.4760186233846611</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002081270917858388</v>
+        <v>0.2265937298090278</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.276610584994213</v>
+        <v>1.654743500869021</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>6.589332156985265</v>
+        <v>9.013592660733261</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1317866431397053</v>
+        <v>0.1802718532146652</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_10.xlsx
+++ b/full/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>30.06526204312328</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1452620431232816</v>
+        <v>-29.92</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02110106117235013</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>29.77361314102566</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2063868589743372</v>
+        <v>-29.98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04259553555729294</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.04</v>
       </c>
       <c r="C4" t="n">
-        <v>29.68242929793294</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3575707020670613</v>
+        <v>-30.04</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1278568069767311</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.21</v>
       </c>
       <c r="C5" t="n">
-        <v>29.09731497494095</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.112685025059047</v>
+        <v>-30.21</v>
       </c>
       <c r="E5" t="n">
-        <v>1.238067964990653</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>29.42940887954319</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7905911204568135</v>
+        <v>-30.22</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6250343197451598</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>29.7881788855304</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5918211144696031</v>
+        <v>-30.38</v>
       </c>
       <c r="E7" t="n">
-        <v>0.350252231532043</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>30.11203082715606</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3279691728439396</v>
+        <v>-30.44</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1075637783359379</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>30.40260766918463</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07739233081537478</v>
+        <v>-30.48</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005989572869036408</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>30.59006937031653</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09993062968347033</v>
+        <v>-30.69</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00998613074893488</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>30.91594707776787</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1659470777678713</v>
+        <v>-30.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02753843261969593</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>31.33968886252005</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3996888625200512</v>
+        <v>-30.94</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1597511868225724</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.95</v>
       </c>
       <c r="C13" t="n">
-        <v>30.76536837120104</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1846316287989609</v>
+        <v>-30.95</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03408883835295728</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>31.02</v>
       </c>
       <c r="C14" t="n">
-        <v>31.54981543083226</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5298154308322651</v>
+        <v>-31.02</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2807043907479787</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.12</v>
       </c>
       <c r="C15" t="n">
-        <v>31.53716129056517</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417161290565172</v>
+        <v>-31.12</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1740235423459999</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.28</v>
       </c>
       <c r="C16" t="n">
-        <v>31.80580307736444</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5258030773644435</v>
+        <v>-31.28</v>
       </c>
       <c r="E16" t="n">
-        <v>0.276468876165919</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.38</v>
       </c>
       <c r="C17" t="n">
-        <v>31.69465262015846</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3146526201584621</v>
+        <v>-31.38</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09900627137258541</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.58</v>
       </c>
       <c r="C18" t="n">
-        <v>31.65740956194169</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07740956194169613</v>
+        <v>-31.58</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005992240280005289</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.65</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6920357347077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04203573470769939</v>
+        <v>-31.65</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001767002992416083</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.88</v>
       </c>
       <c r="C20" t="n">
-        <v>32.28892950617983</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4089295061798346</v>
+        <v>-31.88</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1672233410244834</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>32.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.0583200922224</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2216799077775988</v>
+        <v>-32.28</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04914198151228472</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.45</v>
       </c>
       <c r="C22" t="n">
-        <v>32.38591205351283</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.06408794648717731</v>
+        <v>-32.45</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004107264884943302</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.85</v>
       </c>
       <c r="C23" t="n">
-        <v>33.33719290873862</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4871929087386206</v>
+        <v>-32.85</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2373569303251979</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.9</v>
       </c>
       <c r="C24" t="n">
-        <v>32.94075428314598</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04075428314597929</v>
+        <v>-32.9</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001660911594742651</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>33.1</v>
       </c>
       <c r="C25" t="n">
-        <v>33.47442947657888</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3744294765788752</v>
+        <v>-33.1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1401974329311304</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.4</v>
       </c>
       <c r="C26" t="n">
-        <v>33.55151825792096</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1515182579209622</v>
+        <v>-33.4</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02295778248340322</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>34.01961402267981</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3196140226798079</v>
+        <v>-33.7</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1021531234935687</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>34.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34.51972378838505</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4197237883850491</v>
+        <v>-34.1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1761680585362975</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.4</v>
       </c>
       <c r="C29" t="n">
-        <v>34.91451818290858</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5145181829085814</v>
+        <v>-34.4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2647289605435484</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.9</v>
       </c>
       <c r="C30" t="n">
-        <v>35.25466328792492</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3546632879249216</v>
+        <v>-34.9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1257860478017159</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>35.3</v>
       </c>
       <c r="C31" t="n">
-        <v>35.22518280302381</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.07481719697619127</v>
+        <v>-35.3</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005597612963374204</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.7</v>
       </c>
       <c r="C32" t="n">
-        <v>35.53227223680354</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1677277631964671</v>
+        <v>-35.7</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02813260254689014</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>36.3</v>
       </c>
       <c r="C33" t="n">
-        <v>36.10432122248096</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.195678777519035</v>
+        <v>-36.3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03829018397134398</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.8</v>
       </c>
       <c r="C34" t="n">
-        <v>36.00685295526957</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.793147044730425</v>
+        <v>-36.8</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6290822345646068</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>37.3</v>
       </c>
       <c r="C35" t="n">
-        <v>36.8138861908204</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4861138091795993</v>
+        <v>-37.3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2363066354750999</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.9</v>
       </c>
       <c r="C36" t="n">
-        <v>38.10596804125066</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2059680412506637</v>
+        <v>-37.9</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0424228340166351</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>38.5</v>
       </c>
       <c r="C37" t="n">
-        <v>38.91691024451923</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4169102445192294</v>
+        <v>-38.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1738141519850837</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.9</v>
       </c>
       <c r="C38" t="n">
-        <v>39.07704346685948</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1770434668594802</v>
+        <v>-38.9</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03134438915762388</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>39.4</v>
       </c>
       <c r="C39" t="n">
-        <v>39.85983453175238</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4598345317523851</v>
+        <v>-39.4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2114477965919352</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.9</v>
       </c>
       <c r="C40" t="n">
-        <v>40.31202145670373</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4120214567037337</v>
+        <v>-39.9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1697616807842667</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>40.1</v>
       </c>
       <c r="C41" t="n">
-        <v>40.03263522252641</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0673647774735926</v>
+        <v>-40.1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.004538013244066648</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.6</v>
       </c>
       <c r="C42" t="n">
-        <v>40.00460810423311</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.5953918957668876</v>
+        <v>-40.6</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3544915095448883</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.9</v>
       </c>
       <c r="C43" t="n">
-        <v>41.0610682726564</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1610682726564008</v>
+        <v>-40.9</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02594298845651666</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>41.2</v>
       </c>
       <c r="C44" t="n">
-        <v>41.86145989877423</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6614598987742255</v>
+        <v>-41.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4375291976864086</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.5</v>
       </c>
       <c r="C45" t="n">
-        <v>41.21810426091336</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.281895739086643</v>
+        <v>-41.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07946520771520471</v>
+        <v>1722.25</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.8</v>
       </c>
       <c r="C46" t="n">
-        <v>41.3537642372255</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4462357627744993</v>
+        <v>-41.8</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1991263559789392</v>
+        <v>1747.24</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>42.2</v>
       </c>
       <c r="C47" t="n">
-        <v>42.66360350455556</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4636035045555573</v>
+        <v>-42.2</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2149282094361946</v>
+        <v>1780.84</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.7</v>
       </c>
       <c r="C48" t="n">
-        <v>43.24830246905725</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5483024690572478</v>
+        <v>-42.7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3006355975742742</v>
+        <v>1823.29</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>43.7</v>
       </c>
       <c r="C49" t="n">
-        <v>42.84890041453244</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.8510995854675656</v>
+        <v>-43.7</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7243705043830619</v>
+        <v>1909.69</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>44.2</v>
       </c>
       <c r="C50" t="n">
-        <v>44.17761236751615</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.02238763248384856</v>
+        <v>-44.2</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0005012060882318714</v>
+        <v>1953.64</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>45.6</v>
       </c>
       <c r="C51" t="n">
-        <v>46.07601862338466</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4760186233846611</v>
+        <v>-45.6</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2265937298090278</v>
+        <v>2079.36</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.654743500869021</v>
+        <v>-1759.49</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>9.013592660733261</v>
+        <v>62983.2283</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1802718532146652</v>
+        <v>1259.664566</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_10.xlsx
+++ b/full/sliding_window_results_window_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.216905832290649</v>
+        <v>29.92518424987793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0125812292098999</v>
+        <v>0.005184249877927982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001582873228471726</v>
+        <v>2.68764467967963e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.221390128135681</v>
+        <v>29.99383354187012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007115364074707031</v>
+        <v>0.01383354187011321</v>
       </c>
       <c r="E3" t="n">
-        <v>5.062840500613675e-05</v>
+        <v>0.0001913668806721752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.225948333740234</v>
+        <v>30.00719261169434</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001575589179992676</v>
+        <v>-0.0328073883056561</v>
       </c>
       <c r="E4" t="n">
-        <v>2.482481249899138e-06</v>
+        <v>0.001076324727438101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.222521781921387</v>
+        <v>30.10038566589355</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002221107482910156</v>
+        <v>-0.1096143341064533</v>
       </c>
       <c r="E5" t="n">
-        <v>4.93331845063949e-06</v>
+        <v>0.01201530224160116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.224579334259033</v>
+        <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.233914017677307</v>
+        <v>30.11218070983887</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.009334683418273926</v>
+        <v>-0.1078192901611317</v>
       </c>
       <c r="E6" t="n">
-        <v>8.713631541468203e-05</v>
+        <v>0.01162499933085031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.221961855888367</v>
+        <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.221382141113281</v>
+        <v>30.39787101745605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005797147750854492</v>
+        <v>0.01787101745605923</v>
       </c>
       <c r="E7" t="n">
-        <v>3.360692062415183e-07</v>
+        <v>0.0003193732649147739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.220980286598206</v>
+        <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.228459596633911</v>
+        <v>30.49535942077637</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.007479310035705566</v>
+        <v>0.05535942077636946</v>
       </c>
       <c r="E8" t="n">
-        <v>5.594007961917669e-05</v>
+        <v>0.003064665468695127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.220325946807861</v>
+        <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.224800825119019</v>
+        <v>30.55415916442871</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.004474878311157227</v>
+        <v>0.07415916442870696</v>
       </c>
       <c r="E9" t="n">
-        <v>2.002453584282193e-05</v>
+        <v>0.005499581668763995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.216890454292297</v>
+        <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.210886716842651</v>
+        <v>30.71948051452637</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006003737449645996</v>
+        <v>0.02948051452636946</v>
       </c>
       <c r="E10" t="n">
-        <v>3.604486482799985e-05</v>
+        <v>0.0008691007367394808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.215909004211426</v>
+        <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.221235275268555</v>
+        <v>30.7790584564209</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005326271057128906</v>
+        <v>0.02905845642089844</v>
       </c>
       <c r="E11" t="n">
-        <v>2.836916246451437e-05</v>
+        <v>0.0008443938895652536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.212800741195679</v>
+        <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.20802104473114</v>
+        <v>30.89909934997559</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004779696464538574</v>
+        <v>-0.04090065002441179</v>
       </c>
       <c r="E12" t="n">
-        <v>2.284549918840639e-05</v>
+        <v>0.001672863172419416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.9199275970459</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0300724029541044</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0009043494194340274</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.05201530456543</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03201530456543367</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001024979726417478</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.24328422546387</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1232842254638626</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01519900024822452</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.2647762298584</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.0152237701416027</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0002317631773243539</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.35150718688965</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.02849281311034702</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0008118403989411627</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.5425853729248</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.03741462707519361</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001399854319175811</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.63719749450684</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.01280250549316975</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0001639041469026415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32.07281112670898</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1928111267089889</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03717613058278978</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.29358291625977</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01358291625976449</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0001844956141197745</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>32.32413101196289</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.1258689880371122</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0158430021494867</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32.84077072143555</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.009229278564447441</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.517958282016902e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>32.91131210327148</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01131210327147869</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0001279636804245989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>33.01890182495117</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.08109817504882244</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.006576913996249447</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33.37125778198242</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.02874221801758381</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0008261150965703193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.68293380737305</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.01706619262695597</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0002912549307803662</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>34.16074752807617</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.06074752807617756</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.003690262167365981</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34.55531692504883</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1553169250488224</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02412334720662153</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>34.91857528686523</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01857528686522869</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0003450412821255375</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>35.31350326538086</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01350326538086222</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.000182338175945992</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>35.78045272827148</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.08045272827148153</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.006472641486324844</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>36.27787399291992</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.02212600708007528</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0004895601893075415</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>36.57735824584961</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.2226417541503878</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.04956935069116172</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37.25533676147461</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.04466323852538778</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.001994804875575683</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>38.09828567504883</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1982856750488224</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.03931720892956721</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>38.32049179077148</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.1795082092285156</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.03222319718042854</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.83903884887695</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.06096115112305256</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.003716261946247652</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.4528694152832</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.05286941528319744</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002795175072387191</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39.99673843383789</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.09673843383788494</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.009358324581406842</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>40.01266860961914</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.08733139038085369</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.007626771745853064</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40.48808670043945</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.1119132995605412</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01252458661852743</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40.92841720581055</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02841720581054119</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.000807537586078656</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>41.19658279418945</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.003417205810556823</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.167729555170331e-05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>41.3914794921875</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.1085205078125</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01177670061588287</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>42.04610824584961</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2461082458496122</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.06056926867517317</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42.13846206665039</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.06153793334961222</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.003786917240941315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42.69698333740234</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.003016662597659092</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.100253228115302e-06</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>43.72114944458008</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.02114944458008239</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0004472990060459763</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>44.22608947753906</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.02608947753905966</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0006806608382610984</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.212637066841125</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.220289826393127</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.007652759552001953</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.856472853338346e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>45.5949821472168</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.005017852783204546</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.517884655391361e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.000588536262512207</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.000525592768099159</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0.008397827148407089</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.3905948074046813</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>4.379939855425619e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.007811896148093626</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_10.xlsx
+++ b/full/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>29.51802670773275</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.92</v>
+        <v>-0.4019732922672468</v>
       </c>
       <c r="E2" t="n">
-        <v>895.2064000000001</v>
+        <v>0.1615825276961694</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.789942127982</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.98</v>
+        <v>-0.1900578720179986</v>
       </c>
       <c r="E3" t="n">
-        <v>898.8004000000001</v>
+        <v>0.03612199471600994</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.04</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.01810839594576</v>
       </c>
       <c r="D4" t="n">
-        <v>-30.04</v>
+        <v>-0.02189160405424317</v>
       </c>
       <c r="E4" t="n">
-        <v>902.4015999999999</v>
+        <v>0.0004792423280677562</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.21</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30.33414104483045</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.21</v>
+        <v>0.1241410448304521</v>
       </c>
       <c r="E5" t="n">
-        <v>912.6441000000001</v>
+        <v>0.01541099901159631</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30.44695441741961</v>
       </c>
       <c r="D6" t="n">
-        <v>-30.22</v>
+        <v>0.2269544174196128</v>
       </c>
       <c r="E6" t="n">
-        <v>913.2483999999999</v>
+        <v>0.05150830758627582</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.26487025116176</v>
       </c>
       <c r="D7" t="n">
-        <v>-30.38</v>
+        <v>-0.115129748838239</v>
       </c>
       <c r="E7" t="n">
-        <v>922.9444</v>
+        <v>0.013254859067556</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.30002772833511</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.44</v>
+        <v>-0.1399722716648881</v>
       </c>
       <c r="E8" t="n">
-        <v>926.5936</v>
+        <v>0.01959223683502924</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>30.48236632579598</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.48</v>
+        <v>0.002366325795982505</v>
       </c>
       <c r="E9" t="n">
-        <v>929.0304</v>
+        <v>5.599497772732234e-06</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.62898618471906</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.69</v>
+        <v>-0.06101381528094407</v>
       </c>
       <c r="E10" t="n">
-        <v>941.8761000000001</v>
+        <v>0.003722685655137164</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.18588338749158</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.75</v>
+        <v>-0.5641166125084247</v>
       </c>
       <c r="E11" t="n">
-        <v>945.5625</v>
+        <v>0.3182275525079802</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.31240229444805</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.94</v>
+        <v>-0.6275977055519526</v>
       </c>
       <c r="E12" t="n">
-        <v>957.2836000000001</v>
+        <v>0.3938788800140754</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.95</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.6685515859415</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.95</v>
+        <v>-0.2814484140584987</v>
       </c>
       <c r="E13" t="n">
-        <v>957.9024999999999</v>
+        <v>0.07921320977604415</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>31.02</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>31.02168174071198</v>
       </c>
       <c r="D14" t="n">
-        <v>-31.02</v>
+        <v>0.001681740711983792</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2404</v>
+        <v>2.828251822343753e-06</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.12</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>31.34523840567913</v>
       </c>
       <c r="D15" t="n">
-        <v>-31.12</v>
+        <v>0.225238405679125</v>
       </c>
       <c r="E15" t="n">
-        <v>968.4544000000001</v>
+        <v>0.0507323393928741</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.28</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.32977761628349</v>
       </c>
       <c r="D16" t="n">
-        <v>-31.28</v>
+        <v>0.04977761628348887</v>
       </c>
       <c r="E16" t="n">
-        <v>978.4384000000001</v>
+        <v>0.002477811082866256</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.38</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>31.76660192069113</v>
       </c>
       <c r="D17" t="n">
-        <v>-31.38</v>
+        <v>0.3866019206911346</v>
       </c>
       <c r="E17" t="n">
-        <v>984.7044</v>
+        <v>0.1494610450820744</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.58</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>32.07149440212046</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.58</v>
+        <v>0.491494402120459</v>
       </c>
       <c r="E18" t="n">
-        <v>997.2963999999999</v>
+        <v>0.2415667473157475</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.65</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>32.04447878937641</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.65</v>
+        <v>0.3944787893764143</v>
       </c>
       <c r="E19" t="n">
-        <v>1001.7225</v>
+        <v>0.1556135152678815</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.88</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>31.70459556565881</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.88</v>
+        <v>-0.1754044343411856</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.3344</v>
+        <v>0.03076671558655128</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>32.28</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>32.3360231156244</v>
       </c>
       <c r="D21" t="n">
-        <v>-32.28</v>
+        <v>0.05602311562439866</v>
       </c>
       <c r="E21" t="n">
-        <v>1041.9984</v>
+        <v>0.003138589484264741</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.45</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>32.29917956816637</v>
       </c>
       <c r="D22" t="n">
-        <v>-32.45</v>
+        <v>-0.1508204318336297</v>
       </c>
       <c r="E22" t="n">
-        <v>1053.0025</v>
+        <v>0.02274680265848254</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.85</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>33.31699750471096</v>
       </c>
       <c r="D23" t="n">
-        <v>-32.85</v>
+        <v>0.4669975047109602</v>
       </c>
       <c r="E23" t="n">
-        <v>1079.1225</v>
+        <v>0.2180866694062633</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.9</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>32.97503252456637</v>
       </c>
       <c r="D24" t="n">
-        <v>-32.9</v>
+        <v>0.07503252456637455</v>
       </c>
       <c r="E24" t="n">
-        <v>1082.41</v>
+        <v>0.0056298797428036</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>33.1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>33.14286805253617</v>
       </c>
       <c r="D25" t="n">
-        <v>-33.1</v>
+        <v>0.04286805253616421</v>
       </c>
       <c r="E25" t="n">
-        <v>1095.61</v>
+        <v>0.001837669928243335</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.4</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>33.09659682782137</v>
       </c>
       <c r="D26" t="n">
-        <v>-33.4</v>
+        <v>-0.3034031721786263</v>
       </c>
       <c r="E26" t="n">
-        <v>1115.56</v>
+        <v>0.09205348488805318</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>33.733575576439</v>
       </c>
       <c r="D27" t="n">
-        <v>-33.7</v>
+        <v>0.03357557643899867</v>
       </c>
       <c r="E27" t="n">
-        <v>1135.69</v>
+        <v>0.001127319333211042</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>34.1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>34.52395447622725</v>
       </c>
       <c r="D28" t="n">
-        <v>-34.1</v>
+        <v>0.4239544762272516</v>
       </c>
       <c r="E28" t="n">
-        <v>1162.81</v>
+        <v>0.1797373979131232</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.4</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>34.55653235092028</v>
       </c>
       <c r="D29" t="n">
-        <v>-34.4</v>
+        <v>0.1565323509202798</v>
       </c>
       <c r="E29" t="n">
-        <v>1183.36</v>
+        <v>0.02450237688462963</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.9</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>35.13333827817324</v>
       </c>
       <c r="D30" t="n">
-        <v>-34.9</v>
+        <v>0.2333382781732425</v>
       </c>
       <c r="E30" t="n">
-        <v>1218.01</v>
+        <v>0.05444675206085349</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>35.3</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>34.92158448717328</v>
       </c>
       <c r="D31" t="n">
-        <v>-35.3</v>
+        <v>-0.3784155128267201</v>
       </c>
       <c r="E31" t="n">
-        <v>1246.09</v>
+        <v>0.1431983003479096</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.7</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>35.23280952070267</v>
       </c>
       <c r="D32" t="n">
-        <v>-35.7</v>
+        <v>-0.4671904792973365</v>
       </c>
       <c r="E32" t="n">
-        <v>1274.49</v>
+        <v>0.218266943946075</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>36.3</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>36.00392293331047</v>
       </c>
       <c r="D33" t="n">
-        <v>-36.3</v>
+        <v>-0.2960770666895272</v>
       </c>
       <c r="E33" t="n">
-        <v>1317.69</v>
+        <v>0.08766162941947471</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.8</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>36.38271371876629</v>
       </c>
       <c r="D34" t="n">
-        <v>-36.8</v>
+        <v>-0.4172862812337073</v>
       </c>
       <c r="E34" t="n">
-        <v>1354.24</v>
+        <v>0.1741278405058566</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>37.3</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>37.41941067871166</v>
       </c>
       <c r="D35" t="n">
-        <v>-37.3</v>
+        <v>0.1194106787116667</v>
       </c>
       <c r="E35" t="n">
-        <v>1391.29</v>
+        <v>0.01425891019038088</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.9</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>37.87342213573044</v>
       </c>
       <c r="D36" t="n">
-        <v>-37.9</v>
+        <v>-0.02657786426955511</v>
       </c>
       <c r="E36" t="n">
-        <v>1436.41</v>
+        <v>0.0007063828691308941</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>38.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>38.40034623284688</v>
       </c>
       <c r="D37" t="n">
-        <v>-38.5</v>
+        <v>-0.09965376715312146</v>
       </c>
       <c r="E37" t="n">
-        <v>1482.25</v>
+        <v>0.009930873307808551</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.9</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>39.26824967697826</v>
       </c>
       <c r="D38" t="n">
-        <v>-38.9</v>
+        <v>0.3682496769782588</v>
       </c>
       <c r="E38" t="n">
-        <v>1513.21</v>
+        <v>0.135607824594592</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>39.4</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>39.99580818383873</v>
       </c>
       <c r="D39" t="n">
-        <v>-39.4</v>
+        <v>0.5958081838387272</v>
       </c>
       <c r="E39" t="n">
-        <v>1552.36</v>
+        <v>0.3549873919292026</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.9</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>40.15353084845763</v>
       </c>
       <c r="D40" t="n">
-        <v>-39.9</v>
+        <v>0.2535308484576362</v>
       </c>
       <c r="E40" t="n">
-        <v>1592.01</v>
+        <v>0.06427789111964888</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>40.1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>39.99429156781264</v>
       </c>
       <c r="D41" t="n">
-        <v>-40.1</v>
+        <v>-0.1057084321873631</v>
       </c>
       <c r="E41" t="n">
-        <v>1608.01</v>
+        <v>0.01117427263551035</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.6</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>41.1970682034644</v>
       </c>
       <c r="D42" t="n">
-        <v>-40.6</v>
+        <v>0.5970682034644028</v>
       </c>
       <c r="E42" t="n">
-        <v>1648.36</v>
+        <v>0.3564904395882095</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.9</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.43450599492073</v>
       </c>
       <c r="D43" t="n">
-        <v>-40.9</v>
+        <v>0.5345059949207354</v>
       </c>
       <c r="E43" t="n">
-        <v>1672.81</v>
+        <v>0.2856966586062052</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>41.2</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.18589790951645</v>
       </c>
       <c r="D44" t="n">
-        <v>-41.2</v>
+        <v>-0.01410209048355426</v>
       </c>
       <c r="E44" t="n">
-        <v>1697.44</v>
+        <v>0.0001988689560063517</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.5</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>41.07101789536907</v>
       </c>
       <c r="D45" t="n">
-        <v>-41.5</v>
+        <v>-0.4289821046309328</v>
       </c>
       <c r="E45" t="n">
-        <v>1722.25</v>
+        <v>0.1840256460935846</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.8</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.55498737686809</v>
       </c>
       <c r="D46" t="n">
-        <v>-41.8</v>
+        <v>-0.2450126231319061</v>
       </c>
       <c r="E46" t="n">
-        <v>1747.24</v>
+        <v>0.06003118549397744</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>42.2</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>42.09600345691913</v>
       </c>
       <c r="D47" t="n">
-        <v>-42.2</v>
+        <v>-0.1039965430808749</v>
       </c>
       <c r="E47" t="n">
-        <v>1780.84</v>
+        <v>0.01081528097277227</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.7</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>42.41385264992605</v>
       </c>
       <c r="D48" t="n">
-        <v>-42.7</v>
+        <v>-0.2861473500739535</v>
       </c>
       <c r="E48" t="n">
-        <v>1823.29</v>
+        <v>0.08188030595434571</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>43.7</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>43.66967031332786</v>
       </c>
       <c r="D49" t="n">
-        <v>-43.7</v>
+        <v>-0.03032968667213964</v>
       </c>
       <c r="E49" t="n">
-        <v>1909.69</v>
+        <v>0.0009198898936301651</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>44.2</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>43.9408469767513</v>
       </c>
       <c r="D50" t="n">
-        <v>-44.2</v>
+        <v>-0.2591530232487074</v>
       </c>
       <c r="E50" t="n">
-        <v>1953.64</v>
+        <v>0.06716028945894506</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>45.6</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>45.44306438683569</v>
       </c>
       <c r="D51" t="n">
-        <v>-45.6</v>
+        <v>-0.1569356131643076</v>
       </c>
       <c r="E51" t="n">
-        <v>2079.36</v>
+        <v>0.0246287866792572</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1759.49</v>
+        <v>-0.488767684261834</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>62983.2283</v>
+        <v>4.612971651533983</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1259.664566</v>
+        <v>0.09225943303067967</v>
       </c>
     </row>
   </sheetData>
